--- a/03 User Characteristics/Voice of the Customer.xlsx
+++ b/03 User Characteristics/Voice of the Customer.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safafisalamboharijaon/Desktop/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safafisalamboharijaon/Desktop/Homework/Term 5/Week 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5385DCB2-695A-0044-A3CE-A15DAC9F7DF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2C2EC7-87E9-894D-87C1-D9BF08753C72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1380" windowWidth="27800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="1380" windowWidth="27800" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Comments" sheetId="8" r:id="rId1"/>
     <sheet name="Affinity Group Headings" sheetId="9" r:id="rId2"/>
     <sheet name="Hierarchical Group Headings" sheetId="10" r:id="rId3"/>
+    <sheet name="Quality Attributes" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>Make the game fun.</t>
   </si>
@@ -225,6 +226,33 @@
   </si>
   <si>
     <t>We grouped the 31 comments into 16 user sentiments:</t>
+  </si>
+  <si>
+    <t>Quality Attributes</t>
+  </si>
+  <si>
+    <t>Entertainment Value</t>
+  </si>
+  <si>
+    <t>Visual Appeal</t>
+  </si>
+  <si>
+    <t>Ease of Play</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>We translate the group headings into quality attributes:</t>
+  </si>
+  <si>
+    <t>Multiplayer Diversity</t>
+  </si>
+  <si>
+    <t>Hierarchical Group Heading</t>
+  </si>
+  <si>
+    <t>Translated Quality Attribute</t>
   </si>
 </sst>
 </file>
@@ -252,7 +280,7 @@
       <name val="Gotham Book"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +329,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -342,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,11 +415,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -393,19 +451,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D1E7AA-DC61-5641-9B28-81677F393347}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -809,21 +861,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="39">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" ht="41" customHeight="1">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -837,328 +889,328 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="31" customHeight="1">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:8" ht="18" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="2:8" ht="18" customHeight="1">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" ht="18" customHeight="1">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:8" ht="31" customHeight="1">
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="2:8" ht="19" customHeight="1">
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="2:8" ht="17" customHeight="1">
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="2:8" ht="31" customHeight="1">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1">
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>12</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5" ht="19" customHeight="1">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>13</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="2:5" ht="31" customHeight="1">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="2:5" ht="31" customHeight="1">
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>17</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>18</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="2:5" ht="33" customHeight="1">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>19</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:5" ht="31" customHeight="1">
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>20</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:5" ht="32" customHeight="1">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>21</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="2:5" ht="17" customHeight="1">
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>22</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>23</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>24</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>25</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1">
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>26</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>27</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="2:5" ht="32" customHeight="1">
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>28</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="2:5" ht="30" customHeight="1">
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>29</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="2:5" ht="45" customHeight="1">
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>30</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="2:5" ht="19" customHeight="1">
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>31</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1167,11 +1219,6 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
@@ -1179,11 +1226,11 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
@@ -1191,6 +1238,11 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C5:E5"/>
@@ -1204,27 +1256,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EF0DBC-E6CA-2242-81F0-A64750B8FEF0}">
-  <dimension ref="A2:R33"/>
+  <dimension ref="A2:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="8" customWidth="1"/>
-    <col min="3" max="18" width="20.83203125" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="20.83203125" style="8" customWidth="1"/>
+    <col min="2" max="17" width="20.83203125" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="39">
-      <c r="B2" s="6"/>
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:17" ht="39">
+      <c r="A2" s="6"/>
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1232,16 +1284,16 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="17" customHeight="1">
-      <c r="B3" s="6"/>
-      <c r="C3" s="20" t="s">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="17" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1249,14 +1301,14 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="6"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1264,239 +1316,233 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="42">
-      <c r="B5" s="7"/>
-      <c r="C5" s="1" t="s">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="42">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="N5" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="108" customHeight="1">
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="1:17" ht="108" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="O6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="P6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="Q6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="70">
-      <c r="A7" s="2"/>
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="1:17" ht="70">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="17" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="N7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="P7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="69" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="1:17" ht="69" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="17" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="P8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="Q8" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="56">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:17" ht="56">
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="17" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="P9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1507,88 +1553,32 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -1614,18 +1604,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="39">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="6"/>
@@ -1644,7 +1634,7 @@
     </row>
     <row r="5" spans="1:18" ht="14">
       <c r="A5" s="2"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1666,7 +1656,7 @@
     </row>
     <row r="6" spans="1:18" ht="14">
       <c r="A6" s="2"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
       </c>
@@ -1687,7 +1677,7 @@
     </row>
     <row r="7" spans="1:18" ht="28">
       <c r="A7" s="2"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
@@ -1707,14 +1697,14 @@
     </row>
     <row r="8" spans="1:18" ht="14">
       <c r="A8" s="2"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14">
       <c r="A9" s="2"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1723,14 +1713,14 @@
     </row>
     <row r="10" spans="1:18" ht="28">
       <c r="A10" s="2"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="28">
       <c r="A11" s="2"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1739,14 +1729,14 @@
     </row>
     <row r="12" spans="1:18" ht="28">
       <c r="A12" s="2"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="28">
       <c r="A13" s="2"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1755,35 +1745,35 @@
     </row>
     <row r="14" spans="1:18" ht="28">
       <c r="A14" s="2"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="42">
       <c r="A15" s="2"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="28">
       <c r="A16" s="2"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14">
       <c r="A17" s="2"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28">
       <c r="A18" s="2"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1792,14 +1782,14 @@
     </row>
     <row r="19" spans="1:7" ht="28">
       <c r="A19" s="2"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42">
       <c r="A20" s="2"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
@@ -1854,4 +1844,266 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0168E042-ED94-994A-8A6B-7C381763527C}">
+  <dimension ref="A2:R29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="4" customWidth="1"/>
+    <col min="4" max="18" width="20.83203125" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="39">
+      <c r="B2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" ht="13" customHeight="1">
+      <c r="B3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="28">
+      <c r="B5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2"/>
+      <c r="B6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2"/>
+      <c r="B10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2"/>
+      <c r="B12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2"/>
+      <c r="B14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B18"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/03 User Characteristics/Voice of the Customer.xlsx
+++ b/03 User Characteristics/Voice of the Customer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safafisalamboharijaon/Desktop/Homework/Term 5/Week 10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safafisalamboharijaon/Desktop/Homework/Term 5/Week 10/ESA Project System Definition Documents/User Characteristics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2C2EC7-87E9-894D-87C1-D9BF08753C72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB13211-7B8E-8045-99DE-3536D59171D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="1380" windowWidth="27800" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>Make the game fun.</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Translated Quality Attribute</t>
+  </si>
+  <si>
+    <t>*Multiplayer Diversity considers multiplayability and audience variety</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
       <name val="Gotham Book"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -376,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,6 +448,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,9 +460,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,21 +873,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="39">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" ht="41" customHeight="1">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -889,11 +901,11 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -902,11 +914,11 @@
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -914,311 +926,323 @@
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:8" ht="18" customHeight="1">
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1">
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" ht="18" customHeight="1">
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1">
       <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1">
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:8" ht="31" customHeight="1">
       <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:8" ht="19" customHeight="1">
       <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="2:8" ht="17" customHeight="1">
       <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:8" ht="31" customHeight="1">
       <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1">
       <c r="B17" s="14">
         <v>12</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5" ht="19" customHeight="1">
       <c r="B18" s="14">
         <v>13</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1">
       <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" ht="31" customHeight="1">
       <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" ht="31" customHeight="1">
       <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1">
       <c r="B22" s="14">
         <v>17</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1">
       <c r="B23" s="14">
         <v>18</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="2:5" ht="33" customHeight="1">
       <c r="B24" s="14">
         <v>19</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:5" ht="31" customHeight="1">
       <c r="B25" s="14">
         <v>20</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="2:5" ht="32" customHeight="1">
       <c r="B26" s="14">
         <v>21</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:5" ht="17" customHeight="1">
       <c r="B27" s="14">
         <v>22</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1">
       <c r="B28" s="14">
         <v>23</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1">
       <c r="B29" s="14">
         <v>24</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1">
       <c r="B30" s="14">
         <v>25</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1">
       <c r="B31" s="14">
         <v>26</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1">
       <c r="B32" s="14">
         <v>27</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="2:5" ht="32" customHeight="1">
       <c r="B33" s="14">
         <v>28</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5" ht="30" customHeight="1">
       <c r="B34" s="14">
         <v>29</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="2:5" ht="45" customHeight="1">
       <c r="B35" s="14">
         <v>30</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" ht="19" customHeight="1">
       <c r="B36" s="14">
         <v>31</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
@@ -1231,23 +1255,11 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -1271,11 +1283,11 @@
   <sheetData>
     <row r="2" spans="1:17" ht="39">
       <c r="A2" s="6"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1288,11 +1300,11 @@
     </row>
     <row r="3" spans="1:17" ht="17" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1604,18 +1616,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="39">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="6"/>
@@ -1851,7 +1863,7 @@
   <dimension ref="A2:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -1864,17 +1876,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="39">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:18" ht="13" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:18">
@@ -2040,16 +2052,21 @@
       <c r="C19" s="28" t="s">
         <v>65</v>
       </c>
+      <c r="D19" s="29" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
@@ -2089,7 +2106,8 @@
       <c r="A29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B19:B21"/>
